--- a/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(80-84) - (90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(80-84) - (90+).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="402">
   <si>
     <t>Sex</t>
   </si>
@@ -184,7 +184,7 @@
     <t>9440.2 (±591.0)</t>
   </si>
   <si>
-    <t>13519.8 (±724.1)</t>
+    <t>14208.8 (±722.8)</t>
   </si>
   <si>
     <t>10209.0 (±454.7)</t>
@@ -193,7 +193,7 @@
     <t>4551.0 (±334.0)</t>
   </si>
   <si>
-    <t>9131.0 (±643.1)</t>
+    <t>9755.4 (±659.4)</t>
   </si>
   <si>
     <t>6001.4 (±192.9)</t>
@@ -202,7 +202,7 @@
     <t>1971.8 (±109.7)</t>
   </si>
   <si>
-    <t>6476.8 (±144.5)</t>
+    <t>6830.6 (±141.2)</t>
   </si>
   <si>
     <t>76339.4 (±2895.1)</t>
@@ -253,7 +253,7 @@
     <t>4993.8 (±504.4)</t>
   </si>
   <si>
-    <t>3792.0 (±299.2)</t>
+    <t>5122.6 (±309.9)</t>
   </si>
   <si>
     <t>2323.4 (±78.9)</t>
@@ -262,13 +262,13 @@
     <t>43238.8 (±2966.4)</t>
   </si>
   <si>
-    <t>11434.2 (±525.7)</t>
+    <t>12003.4 (±509.6)</t>
   </si>
   <si>
     <t>-266.2 (±591.0)</t>
   </si>
   <si>
-    <t>-1621.8 (±724.1)</t>
+    <t>-1629.8 (±722.8)</t>
   </si>
   <si>
     <t>1671.0 (±454.7)</t>
@@ -277,7 +277,7 @@
     <t>-64.0 (±334.0)</t>
   </si>
   <si>
-    <t>2361.0 (±643.1)</t>
+    <t>2439.6 (±659.4)</t>
   </si>
   <si>
     <t>-394.4 (±192.9)</t>
@@ -286,7 +286,7 @@
     <t>386.2 (±109.7)</t>
   </si>
   <si>
-    <t>-474.8 (±144.5)</t>
+    <t>-501.6 (±141.2)</t>
   </si>
   <si>
     <t>3551.6 (±2895.1)</t>
@@ -337,7 +337,7 @@
     <t>-631.8 (±504.4)</t>
   </si>
   <si>
-    <t>1586.0 (±299.2)</t>
+    <t>1683.4 (±309.9)</t>
   </si>
   <si>
     <t>158.6 (±78.9)</t>
@@ -346,13 +346,13 @@
     <t>-417.8 (±2966.4)</t>
   </si>
   <si>
-    <t>-1115.2 (±525.7)</t>
+    <t>-1232.4 (±509.6)</t>
   </si>
   <si>
     <t>-2.8% (±5.7%)</t>
   </si>
   <si>
-    <t>-12.0% (±4.5%)</t>
+    <t>-11.5% (±4.3%)</t>
   </si>
   <si>
     <t>16.4% (±5.0%)</t>
@@ -361,7 +361,7 @@
     <t>-1.4% (±6.7%)</t>
   </si>
   <si>
-    <t>25.9% (±8.3%)</t>
+    <t>25.0% (±7.9%)</t>
   </si>
   <si>
     <t>-6.6% (±2.9%)</t>
@@ -370,7 +370,7 @@
     <t>19.6% (±6.3%)</t>
   </si>
   <si>
-    <t>-7.3% (±2.1%)</t>
+    <t>-7.3% (±1.9%)</t>
   </si>
   <si>
     <t>4.7% (±3.9%)</t>
@@ -421,7 +421,7 @@
     <t>-12.7% (±8.0%)</t>
   </si>
   <si>
-    <t>41.8% (±10.3%)</t>
+    <t>32.9% (±7.6%)</t>
   </si>
   <si>
     <t>6.8% (±3.5%)</t>
@@ -430,13 +430,13 @@
     <t>-1.0% (±6.3%)</t>
   </si>
   <si>
-    <t>-9.8% (±3.9%)</t>
+    <t>-10.3% (±3.6%)</t>
   </si>
   <si>
     <t>-94.8(±210.5)</t>
   </si>
   <si>
-    <t>-397.3(±177.4)</t>
+    <t>-399.3(±177.1)</t>
   </si>
   <si>
     <t>756.7(±206.0)</t>
@@ -445,7 +445,7 @@
     <t>-43.8(±228.5)</t>
   </si>
   <si>
-    <t>821.6(±223.8)</t>
+    <t>849.0(±229.4)</t>
   </si>
   <si>
     <t>-122.5(±59.9)</t>
@@ -454,7 +454,7 @@
     <t>694.6(±197.3)</t>
   </si>
   <si>
-    <t>-243.9(±74.2)</t>
+    <t>-257.7(±72.6)</t>
   </si>
   <si>
     <t>136.8(±111.6)</t>
@@ -505,7 +505,7 @@
     <t>-320.2(±255.6)</t>
   </si>
   <si>
-    <t>1270.9(±239.7)</t>
+    <t>1348.9(±248.4)</t>
   </si>
   <si>
     <t>212.6(±105.7)</t>
@@ -514,7 +514,7 @@
     <t>-23.1(±163.7)</t>
   </si>
   <si>
-    <t>-354.7(±167.2)</t>
+    <t>-391.9(±162.0)</t>
   </si>
   <si>
     <t>Male</t>
@@ -523,7 +523,7 @@
     <t>5644.8 (±289.9)</t>
   </si>
   <si>
-    <t>8966.6 (±419.7)</t>
+    <t>9439.4 (±417.3)</t>
   </si>
   <si>
     <t>6562.8 (±290.1)</t>
@@ -532,7 +532,7 @@
     <t>2471.8 (±126.0)</t>
   </si>
   <si>
-    <t>5243.2 (±309.3)</t>
+    <t>5617.6 (±311.0)</t>
   </si>
   <si>
     <t>4307.4 (±217.2)</t>
@@ -541,7 +541,7 @@
     <t>830.0 (±46.8)</t>
   </si>
   <si>
-    <t>3998.4 (±173.9)</t>
+    <t>4218.2 (±185.5)</t>
   </si>
   <si>
     <t>51601.6 (±1660.2)</t>
@@ -592,7 +592,7 @@
     <t>3217.6 (±327.1)</t>
   </si>
   <si>
-    <t>1916.8 (±155.1)</t>
+    <t>2596.6 (±168.8)</t>
   </si>
   <si>
     <t>1282.8 (±86.4)</t>
@@ -601,13 +601,13 @@
     <t>30480.2 (±1692.2)</t>
   </si>
   <si>
-    <t>8169.4 (±312.0)</t>
+    <t>8586.8 (±332.2)</t>
   </si>
   <si>
     <t>764.2 (±289.9)</t>
   </si>
   <si>
-    <t>-63.6 (±419.7)</t>
+    <t>6.6 (±417.3)</t>
   </si>
   <si>
     <t>1613.2 (±290.1)</t>
@@ -616,7 +616,7 @@
     <t>234.2 (±126.0)</t>
   </si>
   <si>
-    <t>2864.8 (±309.3)</t>
+    <t>2893.4 (±311.0)</t>
   </si>
   <si>
     <t>151.6 (±217.2)</t>
@@ -625,7 +625,7 @@
     <t>284.0 (±46.8)</t>
   </si>
   <si>
-    <t>14.6 (±173.9)</t>
+    <t>11.8 (±185.5)</t>
   </si>
   <si>
     <t>5931.4 (±1660.2)</t>
@@ -676,7 +676,7 @@
     <t>-202.6 (±327.1)</t>
   </si>
   <si>
-    <t>1004.2 (±155.1)</t>
+    <t>1076.4 (±168.8)</t>
   </si>
   <si>
     <t>358.2 (±86.4)</t>
@@ -685,13 +685,13 @@
     <t>3191.8 (±1692.2)</t>
   </si>
   <si>
-    <t>75.6 (±312.0)</t>
+    <t>2.2 (±332.2)</t>
   </si>
   <si>
     <t>13.5% (±5.5%)</t>
   </si>
   <si>
-    <t>-0.7% (±4.4%)</t>
+    <t>0.1% (±4.3%)</t>
   </si>
   <si>
     <t>24.6% (±5.3%)</t>
@@ -700,7 +700,7 @@
     <t>9.5% (±5.3%)</t>
   </si>
   <si>
-    <t>54.6% (±8.6%)</t>
+    <t>51.5% (±7.9%)</t>
   </si>
   <si>
     <t>3.5% (±4.9%)</t>
@@ -709,7 +709,7 @@
     <t>34.2% (±7.1%)</t>
   </si>
   <si>
-    <t>0.4% (±4.2%)</t>
+    <t>0.3% (±4.2%)</t>
   </si>
   <si>
     <t>11.5% (±3.5%)</t>
@@ -760,7 +760,7 @@
     <t>-6.3% (±8.6%)</t>
   </si>
   <si>
-    <t>52.4% (±11.4%)</t>
+    <t>41.5% (±8.7%)</t>
   </si>
   <si>
     <t>27.9% (±8.0%)</t>
@@ -769,13 +769,13 @@
     <t>10.5% (±5.8%)</t>
   </si>
   <si>
-    <t>0.9% (±3.7%)</t>
+    <t>0.0% (±3.7%)</t>
   </si>
   <si>
     <t>472.5(±179.3)</t>
   </si>
   <si>
-    <t>-26.6(±175.7)</t>
+    <t>2.8(±174.7)</t>
   </si>
   <si>
     <t>1369.5(±246.3)</t>
@@ -784,7 +784,7 @@
     <t>328.0(±176.4)</t>
   </si>
   <si>
-    <t>1968.4(±212.5)</t>
+    <t>1988.0(±213.7)</t>
   </si>
   <si>
     <t>72.2(±103.4)</t>
@@ -793,7 +793,7 @@
     <t>1485.6(±244.8)</t>
   </si>
   <si>
-    <t>13.5(±160.9)</t>
+    <t>10.9(±171.7)</t>
   </si>
   <si>
     <t>412.7(±115.6)</t>
@@ -844,7 +844,7 @@
     <t>-166.4(±268.7)</t>
   </si>
   <si>
-    <t>1835.2(±283.4)</t>
+    <t>1967.1(±308.5)</t>
   </si>
   <si>
     <t>983.5(±237.2)</t>
@@ -853,19 +853,16 @@
     <t>298.7(±158.4)</t>
   </si>
   <si>
-    <t>36.4(±150.2)</t>
+    <t>1.1(±159.9)</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>15085.0 (±856.6)</t>
   </si>
   <si>
-    <t>22486.4 (±1117.1)</t>
+    <t>23648.2 (±1112.7)</t>
   </si>
   <si>
     <t>16771.8 (±733.2)</t>
@@ -874,7 +871,7 @@
     <t>7022.8 (±455.8)</t>
   </si>
   <si>
-    <t>14374.2 (±937.5)</t>
+    <t>15373.0 (±957.9)</t>
   </si>
   <si>
     <t>10308.8 (±400.3)</t>
@@ -883,15 +880,12 @@
     <t>2801.8 (±151.1)</t>
   </si>
   <si>
-    <t>10475.2 (±297.3)</t>
+    <t>11048.8 (±301.4)</t>
   </si>
   <si>
     <t>127941.0 (±4532.5)</t>
   </si>
   <si>
-    <t>188273.6 (±66723.1)</t>
-  </si>
-  <si>
     <t>21207.6 (±1366.8)</t>
   </si>
   <si>
@@ -937,7 +931,7 @@
     <t>8211.4 (±826.5)</t>
   </si>
   <si>
-    <t>5708.8 (±452.0)</t>
+    <t>7719.2 (±476.8)</t>
   </si>
   <si>
     <t>3606.2 (±160.8)</t>
@@ -946,13 +940,13 @@
     <t>73719.0 (±4644.8)</t>
   </si>
   <si>
-    <t>19603.6 (±818.4)</t>
+    <t>20590.2 (±822.9)</t>
   </si>
   <si>
     <t>498.0 (±856.6)</t>
   </si>
   <si>
-    <t>-1685.4 (±1117.1)</t>
+    <t>-1623.2 (±1112.7)</t>
   </si>
   <si>
     <t>3284.2 (±733.2)</t>
@@ -961,7 +955,7 @@
     <t>170.2 (±455.8)</t>
   </si>
   <si>
-    <t>5225.8 (±937.5)</t>
+    <t>5333.0 (±957.9)</t>
   </si>
   <si>
     <t>-242.8 (±400.3)</t>
@@ -970,15 +964,12 @@
     <t>670.2 (±151.1)</t>
   </si>
   <si>
-    <t>-460.2 (±297.3)</t>
+    <t>-489.8 (±301.4)</t>
   </si>
   <si>
     <t>9483.0 (±4532.5)</t>
   </si>
   <si>
-    <t>15562.4 (±66723.1)</t>
-  </si>
-  <si>
     <t>30.4 (±1366.8)</t>
   </si>
   <si>
@@ -1024,7 +1015,7 @@
     <t>-834.4 (±826.5)</t>
   </si>
   <si>
-    <t>2590.2 (±452.0)</t>
+    <t>2759.8 (±476.8)</t>
   </si>
   <si>
     <t>516.8 (±160.8)</t>
@@ -1033,13 +1024,13 @@
     <t>2771.0 (±4644.8)</t>
   </si>
   <si>
-    <t>-1039.6 (±818.4)</t>
+    <t>-1230.2 (±822.9)</t>
   </si>
   <si>
     <t>3.3% (±5.5%)</t>
   </si>
   <si>
-    <t>-7.5% (±4.4%)</t>
+    <t>-6.9% (±4.1%)</t>
   </si>
   <si>
     <t>19.6% (±5.0%)</t>
@@ -1048,7 +1039,7 @@
     <t>2.4% (±6.2%)</t>
   </si>
   <si>
-    <t>36.4% (±8.4%)</t>
+    <t>34.7% (±7.9%)</t>
   </si>
   <si>
     <t>-2.4% (±3.6%)</t>
@@ -1063,9 +1054,6 @@
     <t>7.4% (±3.7%)</t>
   </si>
   <si>
-    <t>8.3% (±28.4%)</t>
-  </si>
-  <si>
     <t>0.1% (±6.0%)</t>
   </si>
   <si>
@@ -1111,7 +1099,7 @@
     <t>-10.2% (±8.2%)</t>
   </si>
   <si>
-    <t>45.4% (±10.7%)</t>
+    <t>35.8% (±7.9%)</t>
   </si>
   <si>
     <t>14.3% (±4.8%)</t>
@@ -1120,13 +1108,13 @@
     <t>3.8% (±6.2%)</t>
   </si>
   <si>
-    <t>-5.3% (±3.8%)</t>
+    <t>-6.0% (±3.6%)</t>
   </si>
   <si>
     <t>112.5(±193.6)</t>
   </si>
   <si>
-    <t>-260.5(±172.7)</t>
+    <t>-250.9(±172.0)</t>
   </si>
   <si>
     <t>969.9(±216.5)</t>
@@ -1135,7 +1123,7 @@
     <t>78.2(±209.4)</t>
   </si>
   <si>
-    <t>1207.1(±216.6)</t>
+    <t>1231.9(±221.3)</t>
   </si>
   <si>
     <t>-45.6(±75.2)</t>
@@ -1144,15 +1132,12 @@
     <t>897.0(±202.2)</t>
   </si>
   <si>
-    <t>-152.0(±98.2)</t>
+    <t>-161.8(±99.6)</t>
   </si>
   <si>
     <t>235.2(±112.4)</t>
   </si>
   <si>
-    <t>288.8(±1238.1)</t>
-  </si>
-  <si>
     <t>4.0(±179.7)</t>
   </si>
   <si>
@@ -1198,7 +1183,7 @@
     <t>-261.5(±259.0)</t>
   </si>
   <si>
-    <t>1442.9(±251.8)</t>
+    <t>1537.4(±265.6)</t>
   </si>
   <si>
     <t>465.4(±144.9)</t>
@@ -1207,7 +1192,7 @@
     <t>96.2(±161.2)</t>
   </si>
   <si>
-    <t>-199.1(±156.7)</t>
+    <t>-235.6(±157.6)</t>
   </si>
   <si>
     <t>Age</t>
@@ -1763,52 +1748,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>14470</v>
+        <v>15173</v>
       </c>
       <c r="D3">
-        <v>12176</v>
+        <v>12862</v>
       </c>
       <c r="E3">
-        <v>13643</v>
+        <v>14315</v>
       </c>
       <c r="F3">
-        <v>14226</v>
+        <v>14898</v>
       </c>
       <c r="G3">
-        <v>13084</v>
+        <v>13796</v>
       </c>
       <c r="H3">
-        <v>11898</v>
+        <v>12579</v>
       </c>
       <c r="I3">
-        <v>13519.8</v>
+        <v>14208.8</v>
       </c>
       <c r="J3">
-        <v>826.1</v>
+        <v>824.6</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>724.1</v>
+        <v>722.8</v>
       </c>
       <c r="M3">
-        <v>12795.7</v>
+        <v>13486</v>
       </c>
       <c r="N3">
-        <v>14243.9</v>
+        <v>14931.6</v>
       </c>
       <c r="O3">
-        <v>-1621.8</v>
+        <v>-1629.8</v>
       </c>
       <c r="P3">
-        <v>724.1</v>
+        <v>722.8</v>
       </c>
       <c r="Q3">
-        <v>-12</v>
+        <v>-11.5</v>
       </c>
       <c r="R3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="S3" t="s">
         <v>55</v>
@@ -1823,10 +1808,10 @@
         <v>408179</v>
       </c>
       <c r="W3">
-        <v>-397.3</v>
+        <v>-399.3</v>
       </c>
       <c r="X3">
-        <v>177.4</v>
+        <v>177.1</v>
       </c>
       <c r="Y3" t="s">
         <v>139</v>
@@ -1994,52 +1979,52 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>9836</v>
+        <v>10521</v>
       </c>
       <c r="D6">
-        <v>7963</v>
+        <v>8562</v>
       </c>
       <c r="E6">
-        <v>9773</v>
+        <v>10369</v>
       </c>
       <c r="F6">
-        <v>9490</v>
+        <v>10124</v>
       </c>
       <c r="G6">
-        <v>8593</v>
+        <v>9201</v>
       </c>
       <c r="H6">
-        <v>11492</v>
+        <v>12195</v>
       </c>
       <c r="I6">
-        <v>9131.000000000002</v>
+        <v>9755.400000000001</v>
       </c>
       <c r="J6">
-        <v>733.7</v>
+        <v>752.3</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>643.1</v>
+        <v>659.4</v>
       </c>
       <c r="M6">
-        <v>8487.900000000001</v>
+        <v>9096.000000000002</v>
       </c>
       <c r="N6">
-        <v>9774.100000000002</v>
+        <v>10414.8</v>
       </c>
       <c r="O6">
-        <v>2361</v>
+        <v>2439.6</v>
       </c>
       <c r="P6">
-        <v>643.1</v>
+        <v>659.4</v>
       </c>
       <c r="Q6">
-        <v>25.9</v>
+        <v>25</v>
       </c>
       <c r="R6">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="S6" t="s">
         <v>58</v>
@@ -2054,10 +2039,10 @@
         <v>287365</v>
       </c>
       <c r="W6">
-        <v>821.6</v>
+        <v>849</v>
       </c>
       <c r="X6">
-        <v>223.8</v>
+        <v>229.4</v>
       </c>
       <c r="Y6" t="s">
         <v>142</v>
@@ -2225,52 +2210,52 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>6424</v>
+        <v>6790</v>
       </c>
       <c r="D9">
-        <v>6364</v>
+        <v>6699</v>
       </c>
       <c r="E9">
-        <v>6444</v>
+        <v>6802</v>
       </c>
       <c r="F9">
-        <v>6799</v>
+        <v>7143</v>
       </c>
       <c r="G9">
-        <v>6353</v>
+        <v>6719</v>
       </c>
       <c r="H9">
-        <v>6002</v>
+        <v>6329</v>
       </c>
       <c r="I9">
-        <v>6476.799999999998</v>
+        <v>6830.599999999998</v>
       </c>
       <c r="J9">
-        <v>164.8</v>
+        <v>161.1</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>144.5</v>
+        <v>141.2</v>
       </c>
       <c r="M9">
-        <v>6332.299999999998</v>
+        <v>6689.399999999998</v>
       </c>
       <c r="N9">
-        <v>6621.299999999998</v>
+        <v>6971.799999999997</v>
       </c>
       <c r="O9">
-        <v>-474.8</v>
+        <v>-501.6</v>
       </c>
       <c r="P9">
-        <v>144.5</v>
+        <v>141.2</v>
       </c>
       <c r="Q9">
         <v>-7.3</v>
       </c>
       <c r="R9">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="s">
         <v>61</v>
@@ -2285,10 +2270,10 @@
         <v>194655</v>
       </c>
       <c r="W9">
-        <v>-243.9</v>
+        <v>-257.7</v>
       </c>
       <c r="X9">
-        <v>74.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="Y9" t="s">
         <v>145</v>
@@ -3534,52 +3519,52 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>3969</v>
+        <v>5370</v>
       </c>
       <c r="D26">
-        <v>3188</v>
+        <v>4512</v>
       </c>
       <c r="E26">
-        <v>4218</v>
+        <v>5549</v>
       </c>
       <c r="F26">
-        <v>3842</v>
+        <v>5152</v>
       </c>
       <c r="G26">
-        <v>3743</v>
+        <v>5030</v>
       </c>
       <c r="H26">
-        <v>5378</v>
+        <v>6806</v>
       </c>
       <c r="I26">
-        <v>3791.999999999999</v>
+        <v>5122.6</v>
       </c>
       <c r="J26">
-        <v>341.3</v>
+        <v>353.6</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>299.2</v>
+        <v>309.9</v>
       </c>
       <c r="M26">
-        <v>3492.799999999999</v>
+        <v>4812.700000000001</v>
       </c>
       <c r="N26">
-        <v>4091.199999999999</v>
+        <v>5432.5</v>
       </c>
       <c r="O26">
-        <v>1586</v>
+        <v>1683.4</v>
       </c>
       <c r="P26">
-        <v>299.2</v>
+        <v>309.9</v>
       </c>
       <c r="Q26">
-        <v>41.8</v>
+        <v>32.9</v>
       </c>
       <c r="R26">
-        <v>10.3</v>
+        <v>7.6</v>
       </c>
       <c r="S26" t="s">
         <v>78</v>
@@ -3594,10 +3579,10 @@
         <v>124794</v>
       </c>
       <c r="W26">
-        <v>1270.9</v>
+        <v>1348.9</v>
       </c>
       <c r="X26">
-        <v>239.7</v>
+        <v>248.4</v>
       </c>
       <c r="Y26" t="s">
         <v>162</v>
@@ -3765,52 +3750,52 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>11929</v>
+        <v>12495</v>
       </c>
       <c r="D29">
-        <v>11042</v>
+        <v>11602</v>
       </c>
       <c r="E29">
-        <v>11772</v>
+        <v>12359</v>
       </c>
       <c r="F29">
-        <v>11985</v>
+        <v>12509</v>
       </c>
       <c r="G29">
-        <v>10443</v>
+        <v>11052</v>
       </c>
       <c r="H29">
-        <v>10319</v>
+        <v>10771</v>
       </c>
       <c r="I29">
-        <v>11434.2</v>
+        <v>12003.4</v>
       </c>
       <c r="J29">
-        <v>599.8</v>
+        <v>581.4</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>525.7</v>
+        <v>509.6</v>
       </c>
       <c r="M29">
-        <v>10908.5</v>
+        <v>11493.8</v>
       </c>
       <c r="N29">
-        <v>11959.9</v>
+        <v>12513</v>
       </c>
       <c r="O29">
-        <v>-1115.2</v>
+        <v>-1232.4</v>
       </c>
       <c r="P29">
-        <v>525.7</v>
+        <v>509.6</v>
       </c>
       <c r="Q29">
-        <v>-9.800000000000001</v>
+        <v>-10.3</v>
       </c>
       <c r="R29">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="S29" t="s">
         <v>81</v>
@@ -3825,10 +3810,10 @@
         <v>314449</v>
       </c>
       <c r="W29">
-        <v>-354.7</v>
+        <v>-391.9</v>
       </c>
       <c r="X29">
-        <v>167.2</v>
+        <v>162</v>
       </c>
       <c r="Y29" t="s">
         <v>165</v>
@@ -4009,52 +3994,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>9148</v>
+        <v>9633</v>
       </c>
       <c r="D3">
-        <v>8081</v>
+        <v>8543</v>
       </c>
       <c r="E3">
-        <v>9177</v>
+        <v>9670</v>
       </c>
       <c r="F3">
-        <v>9499</v>
+        <v>9928</v>
       </c>
       <c r="G3">
-        <v>8928</v>
+        <v>9423</v>
       </c>
       <c r="H3">
-        <v>8903</v>
+        <v>9446</v>
       </c>
       <c r="I3">
-        <v>8966.6</v>
+        <v>9439.4</v>
       </c>
       <c r="J3">
-        <v>478.8</v>
+        <v>476.1</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>419.7</v>
+        <v>417.3</v>
       </c>
       <c r="M3">
-        <v>8546.9</v>
+        <v>9022.1</v>
       </c>
       <c r="N3">
-        <v>9386.300000000001</v>
+        <v>9856.699999999999</v>
       </c>
       <c r="O3">
-        <v>-63.6</v>
+        <v>6.6</v>
       </c>
       <c r="P3">
-        <v>419.7</v>
+        <v>417.3</v>
       </c>
       <c r="Q3">
-        <v>-0.7</v>
+        <v>0.1</v>
       </c>
       <c r="R3">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="S3" t="s">
         <v>168</v>
@@ -4069,10 +4054,10 @@
         <v>238790</v>
       </c>
       <c r="W3">
-        <v>-26.6</v>
+        <v>2.8</v>
       </c>
       <c r="X3">
-        <v>175.7</v>
+        <v>174.7</v>
       </c>
       <c r="Y3" t="s">
         <v>252</v>
@@ -4240,52 +4225,52 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>5549</v>
+        <v>5929</v>
       </c>
       <c r="D6">
-        <v>4592</v>
+        <v>4962</v>
       </c>
       <c r="E6">
-        <v>5565</v>
+        <v>5929</v>
       </c>
       <c r="F6">
-        <v>5279</v>
+        <v>5685</v>
       </c>
       <c r="G6">
-        <v>5231</v>
+        <v>5583</v>
       </c>
       <c r="H6">
-        <v>8108</v>
+        <v>8511</v>
       </c>
       <c r="I6">
-        <v>5243.200000000001</v>
+        <v>5617.6</v>
       </c>
       <c r="J6">
-        <v>352.9</v>
+        <v>354.8</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>309.3</v>
+        <v>311</v>
       </c>
       <c r="M6">
-        <v>4933.900000000001</v>
+        <v>5306.6</v>
       </c>
       <c r="N6">
-        <v>5552.500000000001</v>
+        <v>5928.6</v>
       </c>
       <c r="O6">
-        <v>2864.8</v>
+        <v>2893.4</v>
       </c>
       <c r="P6">
-        <v>309.3</v>
+        <v>311</v>
       </c>
       <c r="Q6">
-        <v>54.6</v>
+        <v>51.5</v>
       </c>
       <c r="R6">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="S6" t="s">
         <v>171</v>
@@ -4300,10 +4285,10 @@
         <v>145542</v>
       </c>
       <c r="W6">
-        <v>1968.4</v>
+        <v>1988</v>
       </c>
       <c r="X6">
-        <v>212.5</v>
+        <v>213.7</v>
       </c>
       <c r="Y6" t="s">
         <v>255</v>
@@ -4471,49 +4456,49 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>3730</v>
+        <v>3921</v>
       </c>
       <c r="D9">
-        <v>3840</v>
+        <v>4046</v>
       </c>
       <c r="E9">
-        <v>4088</v>
+        <v>4321</v>
       </c>
       <c r="F9">
-        <v>4299</v>
+        <v>4520</v>
       </c>
       <c r="G9">
-        <v>4035</v>
+        <v>4283</v>
       </c>
       <c r="H9">
-        <v>4013</v>
+        <v>4230</v>
       </c>
       <c r="I9">
-        <v>3998.4</v>
+        <v>4218.2</v>
       </c>
       <c r="J9">
-        <v>198.4</v>
+        <v>211.6</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>173.9</v>
+        <v>185.5</v>
       </c>
       <c r="M9">
-        <v>3824.5</v>
+        <v>4032.7</v>
       </c>
       <c r="N9">
-        <v>4172.3</v>
+        <v>4403.7</v>
       </c>
       <c r="O9">
-        <v>14.6</v>
+        <v>11.8</v>
       </c>
       <c r="P9">
-        <v>173.9</v>
+        <v>185.5</v>
       </c>
       <c r="Q9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R9">
         <v>4.2</v>
@@ -4531,10 +4516,10 @@
         <v>108055</v>
       </c>
       <c r="W9">
-        <v>13.5</v>
+        <v>10.9</v>
       </c>
       <c r="X9">
-        <v>160.9</v>
+        <v>171.7</v>
       </c>
       <c r="Y9" t="s">
         <v>258</v>
@@ -5780,52 +5765,52 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>1968</v>
+        <v>2691</v>
       </c>
       <c r="D26">
-        <v>1635</v>
+        <v>2281</v>
       </c>
       <c r="E26">
-        <v>2175</v>
+        <v>2849</v>
       </c>
       <c r="F26">
-        <v>1964</v>
+        <v>2661</v>
       </c>
       <c r="G26">
-        <v>1842</v>
+        <v>2501</v>
       </c>
       <c r="H26">
-        <v>2921</v>
+        <v>3673</v>
       </c>
       <c r="I26">
-        <v>1916.8</v>
+        <v>2596.6</v>
       </c>
       <c r="J26">
-        <v>176.9</v>
+        <v>192.6</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>155.1</v>
+        <v>168.8</v>
       </c>
       <c r="M26">
-        <v>1761.7</v>
+        <v>2427.8</v>
       </c>
       <c r="N26">
-        <v>2071.9</v>
+        <v>2765.400000000001</v>
       </c>
       <c r="O26">
-        <v>1004.2</v>
+        <v>1076.4</v>
       </c>
       <c r="P26">
-        <v>155.1</v>
+        <v>168.8</v>
       </c>
       <c r="Q26">
-        <v>52.4</v>
+        <v>41.5</v>
       </c>
       <c r="R26">
-        <v>11.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S26" t="s">
         <v>191</v>
@@ -5840,10 +5825,10 @@
         <v>54719</v>
       </c>
       <c r="W26">
-        <v>1835.2</v>
+        <v>1967.1</v>
       </c>
       <c r="X26">
-        <v>283.4</v>
+        <v>308.5</v>
       </c>
       <c r="Y26" t="s">
         <v>275</v>
@@ -6011,49 +5996,49 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>8362</v>
+        <v>8777</v>
       </c>
       <c r="D29">
-        <v>7694</v>
+        <v>8085</v>
       </c>
       <c r="E29">
-        <v>8418</v>
+        <v>8875</v>
       </c>
       <c r="F29">
-        <v>8579</v>
+        <v>9015</v>
       </c>
       <c r="G29">
-        <v>7794</v>
+        <v>8182</v>
       </c>
       <c r="H29">
-        <v>8245</v>
+        <v>8589</v>
       </c>
       <c r="I29">
-        <v>8169.399999999999</v>
+        <v>8586.799999999999</v>
       </c>
       <c r="J29">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>312</v>
+        <v>332.2</v>
       </c>
       <c r="M29">
-        <v>7857.399999999999</v>
+        <v>8254.599999999999</v>
       </c>
       <c r="N29">
-        <v>8481.399999999998</v>
+        <v>8919</v>
       </c>
       <c r="O29">
-        <v>75.59999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="P29">
-        <v>312</v>
+        <v>332.2</v>
       </c>
       <c r="Q29">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>3.7</v>
@@ -6071,10 +6056,10 @@
         <v>207684</v>
       </c>
       <c r="W29">
-        <v>36.4</v>
+        <v>1.1</v>
       </c>
       <c r="X29">
-        <v>150.2</v>
+        <v>159.9</v>
       </c>
       <c r="Y29" t="s">
         <v>278</v>
@@ -6087,7 +6072,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6226,13 +6211,13 @@
         <v>5.5</v>
       </c>
       <c r="S2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="U2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="V2">
         <v>442517</v>
@@ -6244,7 +6229,7 @@
         <v>193.6</v>
       </c>
       <c r="Y2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -6255,73 +6240,73 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>23618</v>
+        <v>24806</v>
       </c>
       <c r="D3">
-        <v>20257</v>
+        <v>21405</v>
       </c>
       <c r="E3">
-        <v>22820</v>
+        <v>23985</v>
       </c>
       <c r="F3">
-        <v>23725</v>
+        <v>24826</v>
       </c>
       <c r="G3">
-        <v>22012</v>
+        <v>23219</v>
       </c>
       <c r="H3">
-        <v>20801</v>
+        <v>22025</v>
       </c>
       <c r="I3">
-        <v>22486.40000000001</v>
+        <v>23648.20000000001</v>
       </c>
       <c r="J3">
-        <v>1274.5</v>
+        <v>1269.4</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>1117.1</v>
+        <v>1112.7</v>
       </c>
       <c r="M3">
-        <v>21369.30000000001</v>
+        <v>22535.50000000001</v>
       </c>
       <c r="N3">
-        <v>23603.5</v>
+        <v>24760.90000000001</v>
       </c>
       <c r="O3">
-        <v>-1685.4</v>
+        <v>-1623.2</v>
       </c>
       <c r="P3">
-        <v>1117.1</v>
+        <v>1112.7</v>
       </c>
       <c r="Q3">
-        <v>-7.5</v>
+        <v>-6.9</v>
       </c>
       <c r="R3">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="S3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V3">
         <v>646969</v>
       </c>
       <c r="W3">
-        <v>-260.5</v>
+        <v>-250.9</v>
       </c>
       <c r="X3">
-        <v>172.7</v>
+        <v>172</v>
       </c>
       <c r="Y3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -6380,13 +6365,13 @@
         <v>5</v>
       </c>
       <c r="S4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="U4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="V4">
         <v>338610</v>
@@ -6398,7 +6383,7 @@
         <v>216.5</v>
       </c>
       <c r="Y4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -6457,13 +6442,13 @@
         <v>6.2</v>
       </c>
       <c r="S5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="U5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="V5">
         <v>217633</v>
@@ -6475,7 +6460,7 @@
         <v>209.4</v>
       </c>
       <c r="Y5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -6486,73 +6471,73 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>15385</v>
+        <v>16450</v>
       </c>
       <c r="D6">
-        <v>12555</v>
+        <v>13524</v>
       </c>
       <c r="E6">
-        <v>15338</v>
+        <v>16298</v>
       </c>
       <c r="F6">
-        <v>14769</v>
+        <v>15809</v>
       </c>
       <c r="G6">
-        <v>13824</v>
+        <v>14784</v>
       </c>
       <c r="H6">
-        <v>19600</v>
+        <v>20706</v>
       </c>
       <c r="I6">
-        <v>14374.2</v>
+        <v>15373</v>
       </c>
       <c r="J6">
-        <v>1069.5</v>
+        <v>1092.8</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>937.5</v>
+        <v>957.9</v>
       </c>
       <c r="M6">
-        <v>13436.7</v>
+        <v>14415.1</v>
       </c>
       <c r="N6">
-        <v>15311.7</v>
+        <v>16330.9</v>
       </c>
       <c r="O6">
-        <v>5225.8</v>
+        <v>5333</v>
       </c>
       <c r="P6">
-        <v>937.5</v>
+        <v>957.9</v>
       </c>
       <c r="Q6">
-        <v>36.4</v>
+        <v>34.7</v>
       </c>
       <c r="R6">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="S6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="U6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="V6">
         <v>432907</v>
       </c>
       <c r="W6">
-        <v>1207.1</v>
+        <v>1231.9</v>
       </c>
       <c r="X6">
-        <v>216.6</v>
+        <v>221.3</v>
       </c>
       <c r="Y6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -6611,13 +6596,13 @@
         <v>3.6</v>
       </c>
       <c r="S7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V7">
         <v>531954</v>
@@ -6629,7 +6614,7 @@
         <v>75.2</v>
       </c>
       <c r="Y7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -6688,13 +6673,13 @@
         <v>6.3</v>
       </c>
       <c r="S8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="U8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V8">
         <v>74717</v>
@@ -6706,7 +6691,7 @@
         <v>202.2</v>
       </c>
       <c r="Y8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -6717,46 +6702,46 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>10154</v>
+        <v>10711</v>
       </c>
       <c r="D9">
-        <v>10204</v>
+        <v>10745</v>
       </c>
       <c r="E9">
-        <v>10532</v>
+        <v>11123</v>
       </c>
       <c r="F9">
-        <v>11098</v>
+        <v>11663</v>
       </c>
       <c r="G9">
-        <v>10388</v>
+        <v>11002</v>
       </c>
       <c r="H9">
-        <v>10015</v>
+        <v>10559</v>
       </c>
       <c r="I9">
-        <v>10475.2</v>
+        <v>11048.8</v>
       </c>
       <c r="J9">
-        <v>339.2</v>
+        <v>343.9</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>297.3</v>
+        <v>301.4</v>
       </c>
       <c r="M9">
-        <v>10177.9</v>
+        <v>10747.4</v>
       </c>
       <c r="N9">
-        <v>10772.5</v>
+        <v>11350.2</v>
       </c>
       <c r="O9">
-        <v>-460.2</v>
+        <v>-489.8</v>
       </c>
       <c r="P9">
-        <v>297.3</v>
+        <v>301.4</v>
       </c>
       <c r="Q9">
         <v>-4.4</v>
@@ -6765,25 +6750,25 @@
         <v>2.6</v>
       </c>
       <c r="S9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="V9">
         <v>302710</v>
       </c>
       <c r="W9">
-        <v>-152</v>
+        <v>-161.8</v>
       </c>
       <c r="X9">
-        <v>98.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Y9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -6842,13 +6827,13 @@
         <v>3.7</v>
       </c>
       <c r="S10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="U10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V10">
         <v>4032404</v>
@@ -6860,7 +6845,7 @@
         <v>112.4</v>
       </c>
       <c r="Y10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -6868,76 +6853,76 @@
         <v>279</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>21599</v>
       </c>
       <c r="D11">
-        <v>168893</v>
+        <v>18752</v>
       </c>
       <c r="E11">
-        <v>193595</v>
+        <v>23144</v>
       </c>
       <c r="F11">
-        <v>202776</v>
+        <v>20219</v>
       </c>
       <c r="G11">
-        <v>187832</v>
+        <v>22324</v>
       </c>
       <c r="H11">
-        <v>203836</v>
+        <v>21238</v>
       </c>
       <c r="I11">
-        <v>188273.6000000001</v>
+        <v>21207.59999999999</v>
       </c>
       <c r="J11">
-        <v>76121.10000000001</v>
+        <v>1559.3</v>
       </c>
       <c r="K11">
         <v>1.96</v>
       </c>
       <c r="L11">
-        <v>66723.10000000001</v>
+        <v>1366.8</v>
       </c>
       <c r="M11">
-        <v>121550.5000000001</v>
+        <v>19840.8</v>
       </c>
       <c r="N11">
-        <v>254996.7000000001</v>
+        <v>22574.39999999999</v>
       </c>
       <c r="O11">
-        <v>15562.4</v>
+        <v>30.4</v>
       </c>
       <c r="P11">
-        <v>66723.10000000001</v>
+        <v>1366.8</v>
       </c>
       <c r="Q11">
-        <v>8.300000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R11">
-        <v>28.4</v>
+        <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="U11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="V11">
-        <v>5389106</v>
+        <v>760434</v>
       </c>
       <c r="W11">
-        <v>288.8</v>
+        <v>4</v>
       </c>
       <c r="X11">
-        <v>1238.1</v>
+        <v>179.7</v>
       </c>
       <c r="Y11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -6945,76 +6930,76 @@
         <v>279</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>21599</v>
+        <v>19086</v>
       </c>
       <c r="D12">
-        <v>18752</v>
+        <v>15564</v>
       </c>
       <c r="E12">
-        <v>23144</v>
+        <v>18875</v>
       </c>
       <c r="F12">
-        <v>20219</v>
+        <v>18131</v>
       </c>
       <c r="G12">
-        <v>22324</v>
+        <v>18284</v>
       </c>
       <c r="H12">
-        <v>21238</v>
+        <v>19365</v>
       </c>
       <c r="I12">
-        <v>21207.59999999999</v>
+        <v>17988</v>
       </c>
       <c r="J12">
-        <v>1559.3</v>
+        <v>1263</v>
       </c>
       <c r="K12">
         <v>1.96</v>
       </c>
       <c r="L12">
-        <v>1366.8</v>
+        <v>1107.1</v>
       </c>
       <c r="M12">
-        <v>19840.8</v>
+        <v>16880.9</v>
       </c>
       <c r="N12">
-        <v>22574.39999999999</v>
+        <v>19095.1</v>
       </c>
       <c r="O12">
-        <v>30.4</v>
+        <v>1377</v>
       </c>
       <c r="P12">
-        <v>1366.8</v>
+        <v>1107.1</v>
       </c>
       <c r="Q12">
-        <v>0.1</v>
+        <v>7.7</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="S12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="U12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V12">
-        <v>760434</v>
+        <v>431187</v>
       </c>
       <c r="W12">
-        <v>4</v>
+        <v>319.4</v>
       </c>
       <c r="X12">
-        <v>179.7</v>
+        <v>256.7</v>
       </c>
       <c r="Y12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -7022,76 +7007,76 @@
         <v>279</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>19086</v>
+        <v>312</v>
       </c>
       <c r="D13">
-        <v>15564</v>
+        <v>293</v>
       </c>
       <c r="E13">
-        <v>18875</v>
+        <v>330</v>
       </c>
       <c r="F13">
-        <v>18131</v>
+        <v>312</v>
       </c>
       <c r="G13">
-        <v>18284</v>
+        <v>284</v>
       </c>
       <c r="H13">
-        <v>19365</v>
+        <v>287</v>
       </c>
       <c r="I13">
-        <v>17988</v>
+        <v>306.2</v>
       </c>
       <c r="J13">
-        <v>1263</v>
+        <v>16.1</v>
       </c>
       <c r="K13">
         <v>1.96</v>
       </c>
       <c r="L13">
-        <v>1107.1</v>
+        <v>14.1</v>
       </c>
       <c r="M13">
-        <v>16880.9</v>
+        <v>292.1</v>
       </c>
       <c r="N13">
-        <v>19095.1</v>
+        <v>320.3000000000001</v>
       </c>
       <c r="O13">
-        <v>1377</v>
+        <v>-19.2</v>
       </c>
       <c r="P13">
-        <v>1107.1</v>
+        <v>14.1</v>
       </c>
       <c r="Q13">
-        <v>7.7</v>
+        <v>-6.3</v>
       </c>
       <c r="R13">
-        <v>6.3</v>
+        <v>4.1</v>
       </c>
       <c r="S13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V13">
-        <v>431187</v>
+        <v>12429</v>
       </c>
       <c r="W13">
-        <v>319.4</v>
+        <v>-154.5</v>
       </c>
       <c r="X13">
-        <v>256.7</v>
+        <v>113.5</v>
       </c>
       <c r="Y13" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -7099,76 +7084,76 @@
         <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>312</v>
+        <v>3937</v>
       </c>
       <c r="D14">
-        <v>293</v>
+        <v>4015</v>
       </c>
       <c r="E14">
-        <v>330</v>
+        <v>4287</v>
       </c>
       <c r="F14">
-        <v>312</v>
+        <v>4500</v>
       </c>
       <c r="G14">
-        <v>284</v>
+        <v>4264</v>
       </c>
       <c r="H14">
-        <v>287</v>
+        <v>4965</v>
       </c>
       <c r="I14">
-        <v>306.2</v>
+        <v>4200.599999999999</v>
       </c>
       <c r="J14">
-        <v>16.1</v>
+        <v>202.5</v>
       </c>
       <c r="K14">
         <v>1.96</v>
       </c>
       <c r="L14">
-        <v>14.1</v>
+        <v>177.5</v>
       </c>
       <c r="M14">
-        <v>292.1</v>
+        <v>4023.099999999999</v>
       </c>
       <c r="N14">
-        <v>320.3000000000001</v>
+        <v>4378.099999999999</v>
       </c>
       <c r="O14">
-        <v>-19.2</v>
+        <v>764.4</v>
       </c>
       <c r="P14">
-        <v>14.1</v>
+        <v>177.5</v>
       </c>
       <c r="Q14">
-        <v>-6.3</v>
+        <v>18.2</v>
       </c>
       <c r="R14">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="S14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="U14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="V14">
-        <v>12429</v>
+        <v>107513</v>
       </c>
       <c r="W14">
-        <v>-154.5</v>
+        <v>711</v>
       </c>
       <c r="X14">
-        <v>113.5</v>
+        <v>165.1</v>
       </c>
       <c r="Y14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -7176,76 +7161,76 @@
         <v>279</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="G15">
         <v>38</v>
       </c>
-      <c r="C15">
-        <v>3937</v>
-      </c>
-      <c r="D15">
-        <v>4015</v>
-      </c>
-      <c r="E15">
-        <v>4287</v>
-      </c>
-      <c r="F15">
-        <v>4500</v>
-      </c>
-      <c r="G15">
-        <v>4264</v>
-      </c>
       <c r="H15">
-        <v>4965</v>
+        <v>40</v>
       </c>
       <c r="I15">
-        <v>4200.599999999999</v>
+        <v>41.39999999999999</v>
       </c>
       <c r="J15">
-        <v>202.5</v>
+        <v>5.6</v>
       </c>
       <c r="K15">
         <v>1.96</v>
       </c>
       <c r="L15">
-        <v>177.5</v>
+        <v>4.9</v>
       </c>
       <c r="M15">
-        <v>4023.099999999999</v>
+        <v>36.49999999999999</v>
       </c>
       <c r="N15">
-        <v>4378.099999999999</v>
+        <v>46.29999999999999</v>
       </c>
       <c r="O15">
-        <v>764.4</v>
+        <v>-1.4</v>
       </c>
       <c r="P15">
-        <v>177.5</v>
+        <v>4.9</v>
       </c>
       <c r="Q15">
-        <v>18.2</v>
+        <v>-3.4</v>
       </c>
       <c r="R15">
-        <v>4.8</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="V15">
-        <v>107513</v>
+        <v>2964</v>
       </c>
       <c r="W15">
-        <v>711</v>
+        <v>-47.2</v>
       </c>
       <c r="X15">
-        <v>165.1</v>
+        <v>165.3</v>
       </c>
       <c r="Y15" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -7253,76 +7238,76 @@
         <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>6682</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>6296</v>
       </c>
       <c r="E16">
-        <v>39</v>
+        <v>6945</v>
       </c>
       <c r="F16">
-        <v>48</v>
+        <v>7167</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>6517</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>7381</v>
       </c>
       <c r="I16">
-        <v>41.39999999999999</v>
+        <v>6721.399999999999</v>
       </c>
       <c r="J16">
-        <v>5.6</v>
+        <v>307.5</v>
       </c>
       <c r="K16">
         <v>1.96</v>
       </c>
       <c r="L16">
-        <v>4.9</v>
+        <v>269.5</v>
       </c>
       <c r="M16">
-        <v>36.49999999999999</v>
+        <v>6451.899999999999</v>
       </c>
       <c r="N16">
-        <v>46.29999999999999</v>
+        <v>6990.899999999999</v>
       </c>
       <c r="O16">
-        <v>-1.4</v>
+        <v>659.6</v>
       </c>
       <c r="P16">
-        <v>4.9</v>
+        <v>269.5</v>
       </c>
       <c r="Q16">
-        <v>-3.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R16">
-        <v>10.2</v>
+        <v>4.2</v>
       </c>
       <c r="S16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="U16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="V16">
-        <v>2964</v>
+        <v>161311</v>
       </c>
       <c r="W16">
-        <v>-47.2</v>
+        <v>408.9</v>
       </c>
       <c r="X16">
-        <v>165.3</v>
+        <v>167.1</v>
       </c>
       <c r="Y16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -7330,76 +7315,76 @@
         <v>279</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>6682</v>
+        <v>675</v>
       </c>
       <c r="D17">
-        <v>6296</v>
+        <v>586</v>
       </c>
       <c r="E17">
-        <v>6945</v>
+        <v>644</v>
       </c>
       <c r="F17">
-        <v>7167</v>
+        <v>719</v>
       </c>
       <c r="G17">
-        <v>6517</v>
+        <v>660</v>
       </c>
       <c r="H17">
-        <v>7381</v>
+        <v>692</v>
       </c>
       <c r="I17">
-        <v>6721.399999999999</v>
+        <v>656.8</v>
       </c>
       <c r="J17">
-        <v>307.5</v>
+        <v>43.3</v>
       </c>
       <c r="K17">
         <v>1.96</v>
       </c>
       <c r="L17">
-        <v>269.5</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>6451.899999999999</v>
+        <v>618.8</v>
       </c>
       <c r="N17">
-        <v>6990.899999999999</v>
+        <v>694.8</v>
       </c>
       <c r="O17">
-        <v>659.6</v>
+        <v>35.2</v>
       </c>
       <c r="P17">
-        <v>269.5</v>
+        <v>38</v>
       </c>
       <c r="Q17">
-        <v>9.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="R17">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="S17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="V17">
-        <v>161311</v>
+        <v>24213</v>
       </c>
       <c r="W17">
-        <v>408.9</v>
+        <v>145.4</v>
       </c>
       <c r="X17">
-        <v>167.1</v>
+        <v>156.9</v>
       </c>
       <c r="Y17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -7407,76 +7392,76 @@
         <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>675</v>
+        <v>538</v>
       </c>
       <c r="D18">
-        <v>586</v>
+        <v>410</v>
       </c>
       <c r="E18">
-        <v>644</v>
+        <v>564</v>
       </c>
       <c r="F18">
-        <v>719</v>
+        <v>536</v>
       </c>
       <c r="G18">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="H18">
-        <v>692</v>
+        <v>565</v>
       </c>
       <c r="I18">
-        <v>656.8</v>
+        <v>530.5999999999999</v>
       </c>
       <c r="J18">
-        <v>43.3</v>
+        <v>65.2</v>
       </c>
       <c r="K18">
         <v>1.96</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>57.2</v>
       </c>
       <c r="M18">
-        <v>618.8</v>
+        <v>473.3999999999999</v>
       </c>
       <c r="N18">
-        <v>694.8</v>
+        <v>587.8</v>
       </c>
       <c r="O18">
-        <v>35.2</v>
+        <v>34.4</v>
       </c>
       <c r="P18">
-        <v>38</v>
+        <v>57.2</v>
       </c>
       <c r="Q18">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="R18">
-        <v>5.8</v>
+        <v>10.4</v>
       </c>
       <c r="S18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="V18">
-        <v>24213</v>
+        <v>20773</v>
       </c>
       <c r="W18">
-        <v>145.4</v>
+        <v>165.6</v>
       </c>
       <c r="X18">
-        <v>156.9</v>
+        <v>275.4</v>
       </c>
       <c r="Y18" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -7484,76 +7469,76 @@
         <v>279</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>538</v>
+        <v>227</v>
       </c>
       <c r="D19">
-        <v>410</v>
+        <v>217</v>
       </c>
       <c r="E19">
-        <v>564</v>
+        <v>325</v>
       </c>
       <c r="F19">
-        <v>536</v>
+        <v>219</v>
       </c>
       <c r="G19">
-        <v>605</v>
+        <v>250</v>
       </c>
       <c r="H19">
-        <v>565</v>
+        <v>321</v>
       </c>
       <c r="I19">
-        <v>530.5999999999999</v>
+        <v>247.6</v>
       </c>
       <c r="J19">
-        <v>65.2</v>
+        <v>40.4</v>
       </c>
       <c r="K19">
         <v>1.96</v>
       </c>
       <c r="L19">
-        <v>57.2</v>
+        <v>35.4</v>
       </c>
       <c r="M19">
-        <v>473.3999999999999</v>
+        <v>212.2</v>
       </c>
       <c r="N19">
-        <v>587.8</v>
+        <v>283</v>
       </c>
       <c r="O19">
-        <v>34.4</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="P19">
-        <v>57.2</v>
+        <v>35.4</v>
       </c>
       <c r="Q19">
-        <v>6.5</v>
+        <v>29.6</v>
       </c>
       <c r="R19">
-        <v>10.4</v>
+        <v>16.2</v>
       </c>
       <c r="S19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="U19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="V19">
-        <v>20773</v>
+        <v>20239</v>
       </c>
       <c r="W19">
-        <v>165.6</v>
+        <v>362.7</v>
       </c>
       <c r="X19">
-        <v>275.4</v>
+        <v>174.9</v>
       </c>
       <c r="Y19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -7561,76 +7546,76 @@
         <v>279</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>227</v>
+        <v>31283</v>
       </c>
       <c r="D20">
-        <v>217</v>
+        <v>29190</v>
       </c>
       <c r="E20">
-        <v>325</v>
+        <v>31514</v>
       </c>
       <c r="F20">
-        <v>219</v>
+        <v>33766</v>
       </c>
       <c r="G20">
-        <v>250</v>
+        <v>30401</v>
       </c>
       <c r="H20">
-        <v>321</v>
+        <v>32599</v>
       </c>
       <c r="I20">
-        <v>247.6</v>
+        <v>31230.80000000001</v>
       </c>
       <c r="J20">
-        <v>40.4</v>
+        <v>1507.6</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>35.4</v>
+        <v>1321.5</v>
       </c>
       <c r="M20">
-        <v>212.2</v>
+        <v>29909.30000000001</v>
       </c>
       <c r="N20">
-        <v>283</v>
+        <v>32552.30000000001</v>
       </c>
       <c r="O20">
-        <v>73.40000000000001</v>
+        <v>1368.2</v>
       </c>
       <c r="P20">
-        <v>35.4</v>
+        <v>1321.5</v>
       </c>
       <c r="Q20">
-        <v>29.6</v>
+        <v>4.4</v>
       </c>
       <c r="R20">
-        <v>16.2</v>
+        <v>4.3</v>
       </c>
       <c r="S20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="U20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="V20">
-        <v>20239</v>
+        <v>798820</v>
       </c>
       <c r="W20">
-        <v>362.7</v>
+        <v>171.3</v>
       </c>
       <c r="X20">
-        <v>174.9</v>
+        <v>165.4</v>
       </c>
       <c r="Y20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -7638,76 +7623,76 @@
         <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>31283</v>
+        <v>8974</v>
       </c>
       <c r="D21">
-        <v>29190</v>
+        <v>8125</v>
       </c>
       <c r="E21">
-        <v>31514</v>
+        <v>8714</v>
       </c>
       <c r="F21">
-        <v>33766</v>
+        <v>8799</v>
       </c>
       <c r="G21">
-        <v>30401</v>
+        <v>8083</v>
       </c>
       <c r="H21">
-        <v>32599</v>
+        <v>7508</v>
       </c>
       <c r="I21">
-        <v>31230.80000000001</v>
+        <v>8539</v>
       </c>
       <c r="J21">
-        <v>1507.6</v>
+        <v>365.2</v>
       </c>
       <c r="K21">
         <v>1.96</v>
       </c>
       <c r="L21">
-        <v>1321.5</v>
+        <v>320.1</v>
       </c>
       <c r="M21">
-        <v>29909.30000000001</v>
+        <v>8218.9</v>
       </c>
       <c r="N21">
-        <v>32552.30000000001</v>
+        <v>8859.1</v>
       </c>
       <c r="O21">
-        <v>1368.2</v>
+        <v>-1031</v>
       </c>
       <c r="P21">
-        <v>1321.5</v>
+        <v>320.1</v>
       </c>
       <c r="Q21">
-        <v>4.4</v>
+        <v>-12.1</v>
       </c>
       <c r="R21">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="S21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="U21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V21">
-        <v>798820</v>
+        <v>225999</v>
       </c>
       <c r="W21">
-        <v>171.3</v>
+        <v>-456.2</v>
       </c>
       <c r="X21">
-        <v>165.4</v>
+        <v>141.6</v>
       </c>
       <c r="Y21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -7715,76 +7700,76 @@
         <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>8974</v>
+        <v>65255</v>
       </c>
       <c r="D22">
-        <v>8125</v>
+        <v>59744</v>
       </c>
       <c r="E22">
-        <v>8714</v>
+        <v>69718</v>
       </c>
       <c r="F22">
-        <v>8799</v>
+        <v>70166</v>
       </c>
       <c r="G22">
-        <v>8083</v>
+        <v>66144</v>
       </c>
       <c r="H22">
-        <v>7508</v>
+        <v>87709</v>
       </c>
       <c r="I22">
-        <v>8539</v>
+        <v>66205.40000000001</v>
       </c>
       <c r="J22">
-        <v>365.2</v>
+        <v>3759.8</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>320.1</v>
+        <v>3295.6</v>
       </c>
       <c r="M22">
-        <v>8218.9</v>
+        <v>62909.80000000001</v>
       </c>
       <c r="N22">
-        <v>8859.1</v>
+        <v>69501.00000000001</v>
       </c>
       <c r="O22">
-        <v>-1031</v>
+        <v>21503.6</v>
       </c>
       <c r="P22">
-        <v>320.1</v>
+        <v>3295.6</v>
       </c>
       <c r="Q22">
-        <v>-12.1</v>
+        <v>32.5</v>
       </c>
       <c r="R22">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="S22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="V22">
-        <v>225999</v>
+        <v>1660376</v>
       </c>
       <c r="W22">
-        <v>-456.2</v>
+        <v>1295.1</v>
       </c>
       <c r="X22">
-        <v>141.6</v>
+        <v>198.5</v>
       </c>
       <c r="Y22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -7792,76 +7777,76 @@
         <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>65255</v>
+        <v>26209</v>
       </c>
       <c r="D23">
-        <v>59744</v>
+        <v>22635</v>
       </c>
       <c r="E23">
-        <v>69718</v>
+        <v>24470</v>
       </c>
       <c r="F23">
-        <v>70166</v>
+        <v>26572</v>
       </c>
       <c r="G23">
-        <v>66144</v>
+        <v>25895</v>
       </c>
       <c r="H23">
-        <v>87709</v>
+        <v>30364</v>
       </c>
       <c r="I23">
-        <v>66205.40000000001</v>
+        <v>25156.2</v>
       </c>
       <c r="J23">
-        <v>3759.8</v>
+        <v>1448.2</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>3295.6</v>
+        <v>1269.4</v>
       </c>
       <c r="M23">
-        <v>62909.80000000001</v>
+        <v>23886.8</v>
       </c>
       <c r="N23">
-        <v>69501.00000000001</v>
+        <v>26425.60000000001</v>
       </c>
       <c r="O23">
-        <v>21503.6</v>
+        <v>5207.8</v>
       </c>
       <c r="P23">
-        <v>3295.6</v>
+        <v>1269.4</v>
       </c>
       <c r="Q23">
-        <v>32.5</v>
+        <v>20.7</v>
       </c>
       <c r="R23">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="S23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V23">
-        <v>1660376</v>
+        <v>661456</v>
       </c>
       <c r="W23">
-        <v>1295.1</v>
+        <v>787.3</v>
       </c>
       <c r="X23">
-        <v>198.5</v>
+        <v>191.9</v>
       </c>
       <c r="Y23" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -7869,76 +7854,76 @@
         <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>26209</v>
+        <v>29736</v>
       </c>
       <c r="D24">
-        <v>22635</v>
+        <v>26146</v>
       </c>
       <c r="E24">
-        <v>24470</v>
+        <v>30825</v>
       </c>
       <c r="F24">
-        <v>26572</v>
+        <v>29289</v>
       </c>
       <c r="G24">
-        <v>25895</v>
+        <v>29623</v>
       </c>
       <c r="H24">
-        <v>30364</v>
+        <v>31596</v>
       </c>
       <c r="I24">
-        <v>25156.2</v>
+        <v>29123.8</v>
       </c>
       <c r="J24">
-        <v>1448.2</v>
+        <v>1575.6</v>
       </c>
       <c r="K24">
         <v>1.96</v>
       </c>
       <c r="L24">
-        <v>1269.4</v>
+        <v>1381.1</v>
       </c>
       <c r="M24">
-        <v>23886.8</v>
+        <v>27742.7</v>
       </c>
       <c r="N24">
-        <v>26425.60000000001</v>
+        <v>30504.89999999999</v>
       </c>
       <c r="O24">
-        <v>5207.8</v>
+        <v>2472.2</v>
       </c>
       <c r="P24">
-        <v>1269.4</v>
+        <v>1381.1</v>
       </c>
       <c r="Q24">
-        <v>20.7</v>
+        <v>8.5</v>
       </c>
       <c r="R24">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="S24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="V24">
-        <v>661456</v>
+        <v>906398</v>
       </c>
       <c r="W24">
-        <v>787.3</v>
+        <v>272.7</v>
       </c>
       <c r="X24">
-        <v>191.9</v>
+        <v>152.4</v>
       </c>
       <c r="Y24" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -7946,76 +7931,76 @@
         <v>279</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>29736</v>
+        <v>7783</v>
       </c>
       <c r="D25">
-        <v>26146</v>
+        <v>7194</v>
       </c>
       <c r="E25">
-        <v>30825</v>
+        <v>9992</v>
       </c>
       <c r="F25">
-        <v>29289</v>
+        <v>8028</v>
       </c>
       <c r="G25">
-        <v>29623</v>
+        <v>8060</v>
       </c>
       <c r="H25">
-        <v>31596</v>
+        <v>7377</v>
       </c>
       <c r="I25">
-        <v>29123.8</v>
+        <v>8211.4</v>
       </c>
       <c r="J25">
-        <v>1575.6</v>
+        <v>942.9</v>
       </c>
       <c r="K25">
         <v>1.96</v>
       </c>
       <c r="L25">
-        <v>1381.1</v>
+        <v>826.5</v>
       </c>
       <c r="M25">
-        <v>27742.7</v>
+        <v>7384.9</v>
       </c>
       <c r="N25">
-        <v>30504.89999999999</v>
+        <v>9037.9</v>
       </c>
       <c r="O25">
-        <v>2472.2</v>
+        <v>-834.4</v>
       </c>
       <c r="P25">
-        <v>1381.1</v>
+        <v>826.5</v>
       </c>
       <c r="Q25">
-        <v>8.5</v>
+        <v>-10.2</v>
       </c>
       <c r="R25">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V25">
-        <v>906398</v>
+        <v>319044</v>
       </c>
       <c r="W25">
-        <v>272.7</v>
+        <v>-261.5</v>
       </c>
       <c r="X25">
-        <v>152.4</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -8023,76 +8008,76 @@
         <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>7783</v>
+        <v>8061</v>
       </c>
       <c r="D26">
-        <v>7194</v>
+        <v>6793</v>
       </c>
       <c r="E26">
-        <v>9992</v>
+        <v>8398</v>
       </c>
       <c r="F26">
-        <v>8028</v>
+        <v>7813</v>
       </c>
       <c r="G26">
-        <v>8060</v>
+        <v>7531</v>
       </c>
       <c r="H26">
-        <v>7377</v>
+        <v>10479</v>
       </c>
       <c r="I26">
-        <v>8211.4</v>
+        <v>7719.199999999999</v>
       </c>
       <c r="J26">
-        <v>942.9</v>
+        <v>544</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>826.5</v>
+        <v>476.8</v>
       </c>
       <c r="M26">
-        <v>7384.9</v>
+        <v>7242.399999999999</v>
       </c>
       <c r="N26">
-        <v>9037.9</v>
+        <v>8195.999999999998</v>
       </c>
       <c r="O26">
-        <v>-834.4</v>
+        <v>2759.8</v>
       </c>
       <c r="P26">
-        <v>826.5</v>
+        <v>476.8</v>
       </c>
       <c r="Q26">
-        <v>-10.2</v>
+        <v>35.8</v>
       </c>
       <c r="R26">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="V26">
-        <v>319044</v>
+        <v>179513</v>
       </c>
       <c r="W26">
-        <v>-261.5</v>
+        <v>1537.4</v>
       </c>
       <c r="X26">
-        <v>259</v>
+        <v>265.6</v>
       </c>
       <c r="Y26" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -8100,76 +8085,76 @@
         <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>5937</v>
+        <v>3390</v>
       </c>
       <c r="D27">
-        <v>4823</v>
+        <v>3410</v>
       </c>
       <c r="E27">
-        <v>6393</v>
+        <v>3866</v>
       </c>
       <c r="F27">
-        <v>5806</v>
+        <v>3638</v>
       </c>
       <c r="G27">
-        <v>5585</v>
+        <v>3727</v>
       </c>
       <c r="H27">
-        <v>8299</v>
+        <v>4123</v>
       </c>
       <c r="I27">
-        <v>5708.799999999999</v>
+        <v>3606.199999999999</v>
       </c>
       <c r="J27">
-        <v>515.7</v>
+        <v>183.5</v>
       </c>
       <c r="K27">
         <v>1.96</v>
       </c>
       <c r="L27">
-        <v>452</v>
+        <v>160.8</v>
       </c>
       <c r="M27">
-        <v>5256.799999999999</v>
+        <v>3445.399999999999</v>
       </c>
       <c r="N27">
-        <v>6160.799999999999</v>
+        <v>3767</v>
       </c>
       <c r="O27">
-        <v>2590.2</v>
+        <v>516.8</v>
       </c>
       <c r="P27">
-        <v>452</v>
+        <v>160.8</v>
       </c>
       <c r="Q27">
-        <v>45.4</v>
+        <v>14.3</v>
       </c>
       <c r="R27">
-        <v>10.7</v>
+        <v>4.8</v>
       </c>
       <c r="S27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="V27">
-        <v>179513</v>
+        <v>111033</v>
       </c>
       <c r="W27">
-        <v>1442.9</v>
+        <v>465.4</v>
       </c>
       <c r="X27">
-        <v>251.8</v>
+        <v>144.9</v>
       </c>
       <c r="Y27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -8177,76 +8162,76 @@
         <v>279</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>3390</v>
+        <v>78896</v>
       </c>
       <c r="D28">
-        <v>3410</v>
+        <v>64266</v>
       </c>
       <c r="E28">
-        <v>3866</v>
+        <v>75599</v>
       </c>
       <c r="F28">
-        <v>3638</v>
+        <v>77903</v>
       </c>
       <c r="G28">
-        <v>3727</v>
+        <v>71931</v>
       </c>
       <c r="H28">
-        <v>4123</v>
+        <v>76490</v>
       </c>
       <c r="I28">
-        <v>3606.199999999999</v>
+        <v>73718.99999999999</v>
       </c>
       <c r="J28">
-        <v>183.5</v>
+        <v>5299</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>160.8</v>
+        <v>4644.8</v>
       </c>
       <c r="M28">
-        <v>3445.399999999999</v>
+        <v>69074.19999999998</v>
       </c>
       <c r="N28">
-        <v>3767</v>
+        <v>78363.79999999999</v>
       </c>
       <c r="O28">
-        <v>516.8</v>
+        <v>2771</v>
       </c>
       <c r="P28">
-        <v>160.8</v>
+        <v>4644.8</v>
       </c>
       <c r="Q28">
-        <v>14.3</v>
+        <v>3.8</v>
       </c>
       <c r="R28">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="S28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="U28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V28">
-        <v>111033</v>
+        <v>2880884</v>
       </c>
       <c r="W28">
-        <v>465.4</v>
+        <v>96.2</v>
       </c>
       <c r="X28">
-        <v>144.9</v>
+        <v>161.2</v>
       </c>
       <c r="Y28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -8254,153 +8239,76 @@
         <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>78896</v>
+        <v>21272</v>
       </c>
       <c r="D29">
-        <v>64266</v>
+        <v>19687</v>
       </c>
       <c r="E29">
-        <v>75599</v>
+        <v>21234</v>
       </c>
       <c r="F29">
-        <v>77903</v>
+        <v>21524</v>
       </c>
       <c r="G29">
-        <v>71931</v>
+        <v>19234</v>
       </c>
       <c r="H29">
-        <v>76490</v>
+        <v>19360</v>
       </c>
       <c r="I29">
-        <v>73718.99999999999</v>
+        <v>20590.19999999999</v>
       </c>
       <c r="J29">
-        <v>5299</v>
+        <v>938.8</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>4644.8</v>
+        <v>822.9</v>
       </c>
       <c r="M29">
-        <v>69074.19999999998</v>
+        <v>19767.29999999999</v>
       </c>
       <c r="N29">
-        <v>78363.79999999999</v>
+        <v>21413.09999999999</v>
       </c>
       <c r="O29">
-        <v>2771</v>
+        <v>-1230.2</v>
       </c>
       <c r="P29">
-        <v>4644.8</v>
+        <v>822.9</v>
       </c>
       <c r="Q29">
-        <v>3.8</v>
+        <v>-6</v>
       </c>
       <c r="R29">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="S29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="U29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="V29">
-        <v>2880884</v>
+        <v>522133</v>
       </c>
       <c r="W29">
-        <v>96.2</v>
+        <v>-235.6</v>
       </c>
       <c r="X29">
-        <v>161.2</v>
+        <v>157.6</v>
       </c>
       <c r="Y29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>20291</v>
-      </c>
-      <c r="D30">
-        <v>18736</v>
-      </c>
-      <c r="E30">
-        <v>20190</v>
-      </c>
-      <c r="F30">
-        <v>20564</v>
-      </c>
-      <c r="G30">
-        <v>18237</v>
-      </c>
-      <c r="H30">
-        <v>18564</v>
-      </c>
-      <c r="I30">
-        <v>19603.59999999999</v>
-      </c>
-      <c r="J30">
-        <v>933.7</v>
-      </c>
-      <c r="K30">
-        <v>1.96</v>
-      </c>
-      <c r="L30">
-        <v>818.4</v>
-      </c>
-      <c r="M30">
-        <v>18785.19999999999</v>
-      </c>
-      <c r="N30">
-        <v>20422</v>
-      </c>
-      <c r="O30">
-        <v>-1039.6</v>
-      </c>
-      <c r="P30">
-        <v>818.4</v>
-      </c>
-      <c r="Q30">
-        <v>-5.3</v>
-      </c>
-      <c r="R30">
-        <v>3.8</v>
-      </c>
-      <c r="S30" t="s">
-        <v>309</v>
-      </c>
-      <c r="T30" t="s">
-        <v>338</v>
-      </c>
-      <c r="U30" t="s">
-        <v>367</v>
-      </c>
-      <c r="V30">
-        <v>522133</v>
-      </c>
-      <c r="W30">
-        <v>-199.1</v>
-      </c>
-      <c r="X30">
-        <v>156.7</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -8410,7 +8318,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F280"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8418,7 +8326,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8427,18 +8335,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -8458,7 +8366,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -8478,7 +8386,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -8498,7 +8406,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>166</v>
@@ -8518,7 +8426,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
@@ -8538,7 +8446,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>166</v>
@@ -8558,7 +8466,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s">
         <v>279</v>
@@ -8578,7 +8486,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
         <v>279</v>
@@ -8598,7 +8506,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
         <v>279</v>
@@ -8618,7 +8526,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -8627,18 +8535,18 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -8647,18 +8555,18 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -8667,18 +8575,18 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
         <v>166</v>
@@ -8687,18 +8595,18 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
         <v>166</v>
@@ -8707,18 +8615,18 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B16" t="s">
         <v>166</v>
@@ -8727,18 +8635,18 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
         <v>279</v>
@@ -8747,18 +8655,18 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
         <v>279</v>
@@ -8767,18 +8675,18 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
         <v>279</v>
@@ -8787,18 +8695,18 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -8818,7 +8726,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -8838,7 +8746,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -8858,7 +8766,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B23" t="s">
         <v>166</v>
@@ -8878,7 +8786,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s">
         <v>166</v>
@@ -8898,7 +8806,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B25" t="s">
         <v>166</v>
@@ -8918,7 +8826,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B26" t="s">
         <v>279</v>
@@ -8938,7 +8846,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B27" t="s">
         <v>279</v>
@@ -8958,7 +8866,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B28" t="s">
         <v>279</v>
@@ -8978,7 +8886,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -8998,7 +8906,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -9018,7 +8926,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -9038,7 +8946,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s">
         <v>166</v>
@@ -9058,7 +8966,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B33" t="s">
         <v>166</v>
@@ -9078,7 +8986,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B34" t="s">
         <v>166</v>
@@ -9098,7 +9006,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B35" t="s">
         <v>279</v>
@@ -9118,7 +9026,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B36" t="s">
         <v>279</v>
@@ -9138,7 +9046,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B37" t="s">
         <v>279</v>
@@ -9158,13 +9066,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -9178,13 +9086,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D39">
         <v>13</v>
@@ -9198,13 +9106,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D40">
         <v>13</v>
@@ -9218,13 +9126,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s">
         <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D41">
         <v>13</v>
@@ -9238,13 +9146,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s">
         <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D42">
         <v>13</v>
@@ -9258,13 +9166,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B43" t="s">
         <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D43">
         <v>13</v>
@@ -9278,13 +9186,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s">
         <v>279</v>
       </c>
       <c r="C44" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D44">
         <v>13</v>
@@ -9298,13 +9206,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s">
         <v>279</v>
       </c>
       <c r="C45" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D45">
         <v>13</v>
@@ -9318,13 +9226,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s">
         <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D46">
         <v>13</v>
@@ -9338,7 +9246,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -9347,18 +9255,18 @@
         <v>30</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -9367,18 +9275,18 @@
         <v>30</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -9387,18 +9295,18 @@
         <v>30</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s">
         <v>166</v>
@@ -9407,18 +9315,18 @@
         <v>30</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s">
         <v>166</v>
@@ -9427,18 +9335,18 @@
         <v>30</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s">
         <v>166</v>
@@ -9447,18 +9355,18 @@
         <v>30</v>
       </c>
       <c r="D52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s">
         <v>279</v>
@@ -9467,18 +9375,18 @@
         <v>30</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s">
         <v>279</v>
@@ -9487,18 +9395,18 @@
         <v>30</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s">
         <v>279</v>
@@ -9507,18 +9415,18 @@
         <v>30</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -9538,7 +9446,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -9558,7 +9466,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
@@ -9578,7 +9486,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s">
         <v>166</v>
@@ -9598,7 +9506,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s">
         <v>166</v>
@@ -9618,7 +9526,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s">
         <v>166</v>
@@ -9638,7 +9546,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s">
         <v>279</v>
@@ -9658,7 +9566,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s">
         <v>279</v>
@@ -9678,7 +9586,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s">
         <v>279</v>
@@ -9698,7 +9606,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
@@ -9718,7 +9626,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
@@ -9738,7 +9646,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -9758,7 +9666,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s">
         <v>166</v>
@@ -9778,7 +9686,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s">
         <v>166</v>
@@ -9798,7 +9706,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
@@ -9818,7 +9726,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s">
         <v>279</v>
@@ -9838,7 +9746,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s">
         <v>279</v>
@@ -9858,7 +9766,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B73" t="s">
         <v>279</v>
@@ -9878,7 +9786,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -9887,18 +9795,18 @@
         <v>33</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
@@ -9907,18 +9815,18 @@
         <v>33</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
@@ -9927,18 +9835,18 @@
         <v>33</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B77" t="s">
         <v>166</v>
@@ -9947,18 +9855,18 @@
         <v>33</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B78" t="s">
         <v>166</v>
@@ -9967,18 +9875,18 @@
         <v>33</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B79" t="s">
         <v>166</v>
@@ -9987,18 +9895,18 @@
         <v>33</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s">
         <v>279</v>
@@ -10007,18 +9915,18 @@
         <v>33</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B81" t="s">
         <v>279</v>
@@ -10027,18 +9935,18 @@
         <v>33</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B82" t="s">
         <v>279</v>
@@ -10047,18 +9955,18 @@
         <v>33</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
@@ -10078,7 +9986,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B84" t="s">
         <v>25</v>
@@ -10098,7 +10006,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
@@ -10118,7 +10026,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B86" t="s">
         <v>166</v>
@@ -10138,7 +10046,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B87" t="s">
         <v>166</v>
@@ -10158,7 +10066,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B88" t="s">
         <v>166</v>
@@ -10178,7 +10086,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B89" t="s">
         <v>279</v>
@@ -10198,7 +10106,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B90" t="s">
         <v>279</v>
@@ -10218,7 +10126,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B91" t="s">
         <v>279</v>
@@ -10238,70 +10146,70 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="D92">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="D93">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="D94">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C95" t="s">
         <v>35</v>
@@ -10318,10 +10226,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
         <v>35</v>
@@ -10338,10 +10246,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C97" t="s">
         <v>35</v>
@@ -10358,10 +10266,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C98" t="s">
         <v>35</v>
@@ -10378,10 +10286,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C99" t="s">
         <v>35</v>
@@ -10398,10 +10306,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C100" t="s">
         <v>35</v>
@@ -10418,70 +10326,70 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D103">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s">
         <v>36</v>
@@ -10498,10 +10406,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
         <v>36</v>
@@ -10518,10 +10426,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
         <v>36</v>
@@ -10538,10 +10446,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C107" t="s">
         <v>36</v>
@@ -10558,10 +10466,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C108" t="s">
         <v>36</v>
@@ -10578,10 +10486,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C109" t="s">
         <v>36</v>
@@ -10598,70 +10506,70 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D110">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B112" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D112">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
         <v>37</v>
@@ -10678,10 +10586,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C114" t="s">
         <v>37</v>
@@ -10698,10 +10606,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C115" t="s">
         <v>37</v>
@@ -10718,10 +10626,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C116" t="s">
         <v>37</v>
@@ -10738,10 +10646,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C117" t="s">
         <v>37</v>
@@ -10758,10 +10666,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C118" t="s">
         <v>37</v>
@@ -10778,73 +10686,73 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B119" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B120" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C122" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -10858,13 +10766,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C123" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D123">
         <v>8</v>
@@ -10878,13 +10786,13 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D124">
         <v>8</v>
@@ -10898,13 +10806,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D125">
         <v>8</v>
@@ -10918,13 +10826,13 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -10938,13 +10846,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C127" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -10958,70 +10866,70 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B128" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B130" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C130" t="s">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="D130">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C131" t="s">
         <v>38</v>
@@ -11038,10 +10946,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C132" t="s">
         <v>38</v>
@@ -11058,10 +10966,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
@@ -11078,10 +10986,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C134" t="s">
         <v>38</v>
@@ -11098,10 +11006,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C135" t="s">
         <v>38</v>
@@ -11118,10 +11026,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B136" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
         <v>38</v>
@@ -11138,70 +11046,70 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B137" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D137">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B138" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D138">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D139">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B140" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C140" t="s">
         <v>39</v>
@@ -11218,10 +11126,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C141" t="s">
         <v>39</v>
@@ -11238,10 +11146,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
         <v>39</v>
@@ -11258,10 +11166,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C143" t="s">
         <v>39</v>
@@ -11278,10 +11186,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C144" t="s">
         <v>39</v>
@@ -11298,10 +11206,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C145" t="s">
         <v>39</v>
@@ -11318,70 +11226,70 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B146" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D147">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B148" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D148">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C149" t="s">
         <v>40</v>
@@ -11398,10 +11306,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C150" t="s">
         <v>40</v>
@@ -11418,10 +11326,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C151" t="s">
         <v>40</v>
@@ -11438,10 +11346,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C152" t="s">
         <v>40</v>
@@ -11458,10 +11366,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C153" t="s">
         <v>40</v>
@@ -11478,10 +11386,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B154" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C154" t="s">
         <v>40</v>
@@ -11498,70 +11406,70 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B155" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D155">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B156" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D156">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D157">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C158" t="s">
         <v>41</v>
@@ -11578,10 +11486,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C159" t="s">
         <v>41</v>
@@ -11598,10 +11506,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B160" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C160" t="s">
         <v>41</v>
@@ -11618,10 +11526,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B161" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C161" t="s">
         <v>41</v>
@@ -11638,10 +11546,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C162" t="s">
         <v>41</v>
@@ -11658,10 +11566,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C163" t="s">
         <v>41</v>
@@ -11678,70 +11586,70 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B164" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B165" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B166" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B167" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
         <v>42</v>
@@ -11758,10 +11666,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C168" t="s">
         <v>42</v>
@@ -11778,10 +11686,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C169" t="s">
         <v>42</v>
@@ -11798,10 +11706,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C170" t="s">
         <v>42</v>
@@ -11818,10 +11726,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B171" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C171" t="s">
         <v>42</v>
@@ -11838,10 +11746,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C172" t="s">
         <v>42</v>
@@ -11858,70 +11766,70 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B173" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B174" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D174">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B175" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D175">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B176" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C176" t="s">
         <v>43</v>
@@ -11938,10 +11846,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C177" t="s">
         <v>43</v>
@@ -11958,10 +11866,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B178" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C178" t="s">
         <v>43</v>
@@ -11978,10 +11886,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C179" t="s">
         <v>43</v>
@@ -11998,10 +11906,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B180" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C180" t="s">
         <v>43</v>
@@ -12018,10 +11926,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B181" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C181" t="s">
         <v>43</v>
@@ -12038,70 +11946,70 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B183" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C185" t="s">
         <v>44</v>
@@ -12118,10 +12026,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C186" t="s">
         <v>44</v>
@@ -12138,10 +12046,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B187" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C187" t="s">
         <v>44</v>
@@ -12158,10 +12066,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B188" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C188" t="s">
         <v>44</v>
@@ -12178,10 +12086,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B189" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C189" t="s">
         <v>44</v>
@@ -12198,10 +12106,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B190" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C190" t="s">
         <v>44</v>
@@ -12218,13 +12126,13 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D191">
         <v>17</v>
@@ -12238,13 +12146,13 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B192" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D192">
         <v>17</v>
@@ -12258,13 +12166,13 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B193" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D193">
         <v>17</v>
@@ -12278,10 +12186,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B194" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C194" t="s">
         <v>45</v>
@@ -12298,10 +12206,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C195" t="s">
         <v>45</v>
@@ -12318,10 +12226,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C196" t="s">
         <v>45</v>
@@ -12338,10 +12246,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B197" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C197" t="s">
         <v>45</v>
@@ -12358,10 +12266,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B198" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C198" t="s">
         <v>45</v>
@@ -12378,10 +12286,10 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B199" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C199" t="s">
         <v>45</v>
@@ -12398,70 +12306,70 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B200" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D200">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D201">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D202">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C203" t="s">
         <v>46</v>
@@ -12478,10 +12386,10 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C204" t="s">
         <v>46</v>
@@ -12498,10 +12406,10 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C205" t="s">
         <v>46</v>
@@ -12518,10 +12426,10 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B206" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C206" t="s">
         <v>46</v>
@@ -12538,10 +12446,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B207" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C207" t="s">
         <v>46</v>
@@ -12558,10 +12466,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B208" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C208" t="s">
         <v>46</v>
@@ -12578,70 +12486,70 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B209" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D209">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B210" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D210">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B211" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D211">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B212" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C212" t="s">
         <v>47</v>
@@ -12658,10 +12566,10 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C213" t="s">
         <v>47</v>
@@ -12678,10 +12586,10 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B214" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C214" t="s">
         <v>47</v>
@@ -12698,10 +12606,10 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B215" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C215" t="s">
         <v>47</v>
@@ -12718,10 +12626,10 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B216" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C216" t="s">
         <v>47</v>
@@ -12738,10 +12646,10 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B217" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C217" t="s">
         <v>47</v>
@@ -12758,70 +12666,70 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B218" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D218">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B219" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D219">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B220" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D220">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B221" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C221" t="s">
         <v>48</v>
@@ -12838,10 +12746,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B222" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C222" t="s">
         <v>48</v>
@@ -12858,10 +12766,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B223" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C223" t="s">
         <v>48</v>
@@ -12878,10 +12786,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B224" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C224" t="s">
         <v>48</v>
@@ -12898,10 +12806,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B225" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C225" t="s">
         <v>48</v>
@@ -12918,10 +12826,10 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B226" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C226" t="s">
         <v>48</v>
@@ -12938,70 +12846,70 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B227" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D227">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B228" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D228">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E228">
         <v>1</v>
       </c>
       <c r="F228">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B229" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D229">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B230" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C230" t="s">
         <v>49</v>
@@ -13018,10 +12926,10 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B231" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C231" t="s">
         <v>49</v>
@@ -13038,10 +12946,10 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B232" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C232" t="s">
         <v>49</v>
@@ -13058,10 +12966,10 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B233" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C233" t="s">
         <v>49</v>
@@ -13078,10 +12986,10 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B234" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C234" t="s">
         <v>49</v>
@@ -13098,10 +13006,10 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B235" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C235" t="s">
         <v>49</v>
@@ -13118,250 +13026,250 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B236" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C236" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D236">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B237" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C237" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E237">
         <v>1</v>
       </c>
       <c r="F237">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B238" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D238">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
       <c r="F238">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B239" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C239" t="s">
         <v>50</v>
       </c>
       <c r="D239">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E239">
         <v>1</v>
       </c>
       <c r="F239">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B240" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C240" t="s">
         <v>50</v>
       </c>
       <c r="D240">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E240">
         <v>1</v>
       </c>
       <c r="F240">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B241" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C241" t="s">
         <v>50</v>
       </c>
       <c r="D241">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E241">
         <v>1</v>
       </c>
       <c r="F241">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B242" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C242" t="s">
         <v>50</v>
       </c>
       <c r="D242">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E242">
         <v>1</v>
       </c>
       <c r="F242">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B243" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C243" t="s">
         <v>50</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E243">
         <v>1</v>
       </c>
       <c r="F243">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B244" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C244" t="s">
         <v>50</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E244">
         <v>1</v>
       </c>
       <c r="F244">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B245" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C245" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D245">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E245">
         <v>1</v>
       </c>
       <c r="F245">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C246" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D246">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E246">
         <v>1</v>
       </c>
       <c r="F246">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B247" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C247" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D247">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E247">
         <v>1</v>
       </c>
       <c r="F247">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B248" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C248" t="s">
         <v>51</v>
@@ -13378,10 +13286,10 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B249" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C249" t="s">
         <v>51</v>
@@ -13398,10 +13306,10 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B250" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C250" t="s">
         <v>51</v>
@@ -13418,10 +13326,10 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B251" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C251" t="s">
         <v>51</v>
@@ -13438,10 +13346,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B252" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C252" t="s">
         <v>51</v>
@@ -13458,10 +13366,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B253" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C253" t="s">
         <v>51</v>
@@ -13478,70 +13386,70 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B254" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C254" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D254">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E254">
         <v>1</v>
       </c>
       <c r="F254">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B255" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C255" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D255">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E255">
         <v>1</v>
       </c>
       <c r="F255">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B256" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D256">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E256">
         <v>1</v>
       </c>
       <c r="F256">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C257" t="s">
         <v>52</v>
@@ -13558,10 +13466,10 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C258" t="s">
         <v>52</v>
@@ -13578,10 +13486,10 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C259" t="s">
         <v>52</v>
@@ -13598,10 +13506,10 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B260" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C260" t="s">
         <v>52</v>
@@ -13618,10 +13526,10 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B261" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C261" t="s">
         <v>52</v>
@@ -13638,10 +13546,10 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B262" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C262" t="s">
         <v>52</v>
@@ -13658,253 +13566,253 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B263" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C263" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D263">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E263">
         <v>1</v>
       </c>
       <c r="F263">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B264" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C264" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D264">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E264">
         <v>1</v>
       </c>
       <c r="F264">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C265" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D265">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E265">
         <v>1</v>
       </c>
       <c r="F265">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B266" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C266" t="s">
         <v>53</v>
       </c>
       <c r="D266">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E266">
         <v>1</v>
       </c>
       <c r="F266">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B267" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C267" t="s">
         <v>53</v>
       </c>
       <c r="D267">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E267">
         <v>1</v>
       </c>
       <c r="F267">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B268" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C268" t="s">
         <v>53</v>
       </c>
       <c r="D268">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E268">
         <v>1</v>
       </c>
       <c r="F268">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B269" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C269" t="s">
         <v>53</v>
       </c>
       <c r="D269">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E269">
         <v>1</v>
       </c>
       <c r="F269">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B270" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C270" t="s">
         <v>53</v>
       </c>
       <c r="D270">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E270">
         <v>1</v>
       </c>
       <c r="F270">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B271" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C271" t="s">
         <v>53</v>
       </c>
       <c r="D271">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E271">
         <v>1</v>
       </c>
       <c r="F271">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
+        <v>396</v>
+      </c>
+      <c r="B272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272" t="s">
         <v>401</v>
       </c>
-      <c r="B272" t="s">
-        <v>279</v>
-      </c>
-      <c r="C272" t="s">
-        <v>53</v>
-      </c>
       <c r="D272">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E272">
         <v>1</v>
       </c>
       <c r="F272">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B273" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C273" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="D273">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E273">
         <v>1</v>
       </c>
       <c r="F273">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B274" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C274" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="D274">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E274">
         <v>1</v>
       </c>
       <c r="F274">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
+        <v>396</v>
+      </c>
+      <c r="B275" t="s">
+        <v>166</v>
+      </c>
+      <c r="C275" t="s">
         <v>401</v>
-      </c>
-      <c r="B275" t="s">
-        <v>25</v>
-      </c>
-      <c r="C275" t="s">
-        <v>406</v>
       </c>
       <c r="D275">
         <v>16</v>
@@ -13918,13 +13826,13 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B276" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C276" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D276">
         <v>16</v>
@@ -13938,13 +13846,13 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B277" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C277" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D277">
         <v>16</v>
@@ -13958,13 +13866,13 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
+        <v>396</v>
+      </c>
+      <c r="B278" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" t="s">
         <v>401</v>
-      </c>
-      <c r="B278" t="s">
-        <v>166</v>
-      </c>
-      <c r="C278" t="s">
-        <v>406</v>
       </c>
       <c r="D278">
         <v>16</v>
@@ -13978,13 +13886,13 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B279" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D279">
         <v>16</v>
@@ -13998,13 +13906,13 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B280" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C280" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D280">
         <v>16</v>
@@ -14013,66 +13921,6 @@
         <v>1</v>
       </c>
       <c r="F280">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" t="s">
-        <v>401</v>
-      </c>
-      <c r="B281" t="s">
-        <v>279</v>
-      </c>
-      <c r="C281" t="s">
-        <v>406</v>
-      </c>
-      <c r="D281">
-        <v>16</v>
-      </c>
-      <c r="E281">
-        <v>1</v>
-      </c>
-      <c r="F281">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" t="s">
-        <v>402</v>
-      </c>
-      <c r="B282" t="s">
-        <v>279</v>
-      </c>
-      <c r="C282" t="s">
-        <v>406</v>
-      </c>
-      <c r="D282">
-        <v>16</v>
-      </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283" t="s">
-        <v>403</v>
-      </c>
-      <c r="B283" t="s">
-        <v>279</v>
-      </c>
-      <c r="C283" t="s">
-        <v>406</v>
-      </c>
-      <c r="D283">
-        <v>16</v>
-      </c>
-      <c r="E283">
-        <v>1</v>
-      </c>
-      <c r="F283">
         <v>16</v>
       </c>
     </row>
